--- a/ML_prep_interview.xlsx
+++ b/ML_prep_interview.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DESKTOP-QSF3VEN\Documents\everythin_new\voyager\transform_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{648FFA61-44B9-49F0-8C5C-308F5A2CED35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3379E0EB-1AEC-40FD-9361-7B55BC9C63AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{023DBBB3-BADD-46EE-BBDF-4AA1573CE2DE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{023DBBB3-BADD-46EE-BBDF-4AA1573CE2DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="general" sheetId="2" r:id="rId2"/>
+    <sheet name="AWS" sheetId="3" r:id="rId3"/>
+    <sheet name="NLP" sheetId="4" r:id="rId4"/>
+    <sheet name="LLMs" sheetId="5" r:id="rId5"/>
+    <sheet name="Transformers" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -575,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13151FA-462F-450F-BCF6-269A628C3229}">
   <dimension ref="D2:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -814,7 +816,7 @@
   <dimension ref="E2:U11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:U11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1971,4 +1973,28 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0E479C-9C76-410C-BCB1-910F326353BF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E83618-303E-4B5C-93F6-E92D310CFB9B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>